--- a/content/Demo part 1/A first look at generated content/instructionsections/lesson plan fs.xlsx
+++ b/content/Demo part 1/A first look at generated content/instructionsections/lesson plan fs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\GitHub\functional-skills\content\Demo part 1\A first look at generated content\instructionsections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF23A3A-3476-470B-9585-6902F0E91FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF56936D-1F5E-4888-AA00-F2BCAE538545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{DC7A4ACF-1B9C-4DBE-BBB1-7450FC001252}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DC7A4ACF-1B9C-4DBE-BBB1-7450FC001252}"/>
   </bookViews>
   <sheets>
     <sheet name="pageplan" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t xml:space="preserve">The netire website has been generated from some folders, excel files and pdfs </t>
-  </si>
-  <si>
     <t>We can add more features but for now the three main parts you can add to pages are videos pdfs and text</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>In the planning doc everything must have a type assigned or it will not show on the site, it will send an error message to a file I have stored with the file location so we can find any mistakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The entire website has been generated from some folders, excel files and pdfs </t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -528,7 +528,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -536,7 +536,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -552,7 +552,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -560,7 +560,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -568,7 +568,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
@@ -576,7 +576,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
